--- a/data/trans_bre/P16A02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A02-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>5.500646071301321</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8.95576203256508</v>
+        <v>8.955762032565074</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.250989172436582</v>
@@ -649,7 +649,7 @@
         <v>0.4645380676777268</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.7660286617696561</v>
+        <v>0.7660286617696557</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.443692472983897</v>
+        <v>5.382065677440203</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.666633611520736</v>
+        <v>5.544157535392116</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.007957029291542227</v>
+        <v>0.3803403347242886</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.217151952438912</v>
+        <v>1.757822235755088</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5522082660092198</v>
+        <v>0.5209558964721959</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.376033775595822</v>
+        <v>0.3943656313161445</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.005686401975581542</v>
+        <v>0.009568256004059897</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.06969901699903927</v>
+        <v>0.04786512690764995</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.76091252522911</v>
+        <v>13.80944922763374</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.16691058394862</v>
+        <v>15.73713354933525</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.78685007179404</v>
+        <v>10.34827127239998</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.65973741842512</v>
+        <v>16.69237911057595</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.266501782565715</v>
+        <v>2.248137868347754</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.5950199922462</v>
+        <v>1.608030795575477</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9909745954383672</v>
+        <v>1.102487610615556</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.021452364241748</v>
+        <v>1.890209554844178</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.609797951395401</v>
+        <v>3.025895909998601</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.278471116895736</v>
+        <v>5.295762991377346</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.120290358761137</v>
+        <v>1.661772402453359</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.251654983226328</v>
+        <v>-4.232115340121762</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2574434122553564</v>
+        <v>0.2959207853142682</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3244697410303344</v>
+        <v>0.2996224938933841</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0999733596251442</v>
+        <v>0.0875185710971092</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2054631415141546</v>
+        <v>-0.1919955534598981</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.759556513144528</v>
+        <v>10.0507386210363</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.51087631090402</v>
+        <v>14.48422711731822</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.22533242329988</v>
+        <v>11.20757398501023</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.873346085421249</v>
+        <v>7.847208307576216</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.315514162804376</v>
+        <v>1.386699816994092</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.114054245590701</v>
+        <v>1.095923747943087</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7863503853964823</v>
+        <v>0.7769984214030307</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5327476132751628</v>
+        <v>0.5339677880639497</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>6.475852611964871</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12.44317167785801</v>
+        <v>12.44317167785802</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5168532578649299</v>
@@ -849,7 +849,7 @@
         <v>0.37393586925051</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.6916915506100901</v>
+        <v>0.6916915506100904</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.875791308833104</v>
+        <v>2.629788468967666</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>11.87212063668109</v>
+        <v>11.39661305063657</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.979309668484803</v>
+        <v>1.776671542500928</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.336163413618801</v>
+        <v>7.908444615224797</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1854283662274948</v>
+        <v>0.1586036760152987</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6983325941395468</v>
+        <v>0.6690560371800683</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1028525971329635</v>
+        <v>0.09042206763670503</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3915988094345216</v>
+        <v>0.3659749250118405</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.97379412945939</v>
+        <v>11.06251678567745</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>20.69431881693585</v>
+        <v>20.52545636107585</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.14765628121455</v>
+        <v>10.73932415691227</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.30609293874174</v>
+        <v>16.63755795878529</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9303636795850599</v>
+        <v>0.9229985220072355</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.717252108097327</v>
+        <v>1.630622417162389</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7341527940649638</v>
+        <v>0.7015548371882838</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.090678429378814</v>
+        <v>1.053523736194116</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>9.80073286997426</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12.49583811796395</v>
+        <v>12.49583811796396</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6049289300321418</v>
@@ -949,7 +949,7 @@
         <v>0.5057437063836816</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4978306398868482</v>
+        <v>0.4978306398868486</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.931022218674968</v>
+        <v>4.09087681257108</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>10.06823912051044</v>
+        <v>10.35610591337392</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.83940916796715</v>
+        <v>4.790605726108756</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7.977767176828316</v>
+        <v>7.811262088763664</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2280674935078912</v>
+        <v>0.2316244684964769</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5172552956579841</v>
+        <v>0.530925507624742</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.229070670701111</v>
+        <v>0.2125191693284932</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2850616909220856</v>
+        <v>0.2812266278157464</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13.94583035100821</v>
+        <v>13.77811079000282</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>20.48596573068853</v>
+        <v>20.38513575875583</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.6013959007254</v>
+        <v>14.8328055067601</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16.91213051437929</v>
+        <v>17.03069140459401</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.125047123020513</v>
+        <v>1.094775005401607</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.423535767384777</v>
+        <v>1.378992319505516</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8659943506182346</v>
+        <v>0.8506010223914632</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7657880917996412</v>
+        <v>0.7620093112110744</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.491231456565318</v>
+        <v>0.5736476486470553</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.996109250332488</v>
+        <v>7.776143716603408</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10.37302331526081</v>
+        <v>10.71428344659559</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9.725936825200103</v>
+        <v>9.570083511302338</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.01648371807331346</v>
+        <v>0.01664271910557196</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3258266105815878</v>
+        <v>0.3005721037003911</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3904378178000427</v>
+        <v>0.3977635774953956</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2957426824994414</v>
+        <v>0.2838939834965872</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.1151513532118</v>
+        <v>12.68550190225941</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>20.34269309918534</v>
+        <v>20.35209522343949</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22.92259634408048</v>
+        <v>22.77348532631152</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19.13202121575986</v>
+        <v>19.18304148957191</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6724651417287003</v>
+        <v>0.6533187656106444</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.078644586023497</v>
+        <v>1.038604255594158</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.176186736911081</v>
+        <v>1.157082020435108</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7107893696512283</v>
+        <v>0.708666856666002</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>25.19562875009463</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25.6681670551928</v>
+        <v>25.66816705519278</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9491627604581225</v>
@@ -1149,7 +1149,7 @@
         <v>1.410072613813617</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.9509162521713682</v>
+        <v>0.9509162521713674</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>9.65073186470843</v>
+        <v>9.297948037434917</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>11.70957633866347</v>
+        <v>12.05165334999833</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>18.62933555290531</v>
+        <v>17.95661940716759</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20.87436808722375</v>
+        <v>20.55626448988342</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4676934922101006</v>
+        <v>0.4654706616253197</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3799835009791257</v>
+        <v>0.3670024708263221</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8422540077899099</v>
+        <v>0.8615981340731663</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.6915280904939668</v>
+        <v>0.6861632689938306</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>22.00283199378959</v>
+        <v>21.98863344525691</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>27.14237355019987</v>
+        <v>26.00303326613713</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>31.91647713355859</v>
+        <v>31.92258247712044</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30.8918459770221</v>
+        <v>30.59803903828642</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.595118844554918</v>
+        <v>1.608920357857668</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.211163007860477</v>
+        <v>1.140193046424808</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.150271019944042</v>
+        <v>2.243131106299017</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.287320629102628</v>
+        <v>1.272911409215872</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.684843096383551</v>
+        <v>7.601984621977592</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>13.11541967491772</v>
+        <v>13.47811241293421</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8.792388132020692</v>
+        <v>8.503687745287341</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20.85757489480719</v>
+        <v>21.06076829404347</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2445346109987346</v>
+        <v>0.2475464435681493</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3558369760598243</v>
+        <v>0.370404085981046</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2393202140743777</v>
+        <v>0.2271093549663772</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.4777247707156718</v>
+        <v>0.4766594779522585</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.78764397891552</v>
+        <v>23.12537412624863</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>29.16151972749674</v>
+        <v>29.05324515865269</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>24.95956394280807</v>
+        <v>24.13537917338173</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>32.4258431231381</v>
+        <v>32.3153919978346</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.071354294055922</v>
+        <v>1.054408925596009</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.107478657880635</v>
+        <v>1.124517677790697</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8634099330867188</v>
+        <v>0.8328109147206447</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.9083577013724137</v>
+        <v>0.8969440554406692</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>8.005556235671209</v>
+        <v>8.009719072734732</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>13.57966768770014</v>
+        <v>13.66315904377864</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10.07474341605635</v>
+        <v>10.04853540987041</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13.22115591481453</v>
+        <v>13.16799462970986</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5445189552257447</v>
+        <v>0.5378297878699331</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7093416892878137</v>
+        <v>0.7193392919707466</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.504699996945122</v>
+        <v>0.4985751381516247</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.5269072575424633</v>
+        <v>0.524935991318081</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>11.7522077349228</v>
+        <v>11.78248119447574</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>17.72246745686036</v>
+        <v>17.83739031300613</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>14.33309633048165</v>
+        <v>14.29955702265546</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>17.07420361257656</v>
+        <v>17.3989879979748</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8935465162126015</v>
+        <v>0.9158673469311975</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.057166938989583</v>
+        <v>1.058952046339517</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8037676523082425</v>
+        <v>0.8021727258040633</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7586847899563234</v>
+        <v>0.7656725920231344</v>
       </c>
     </row>
     <row r="28">
